--- a/Data/GolfData.xlsx
+++ b/Data/GolfData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lefties-righties\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705797C-66AB-41E4-8D95-DAD5F7523F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0607AE7-541B-4662-8689-1A18521500DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="165" windowWidth="12346" windowHeight="13522" activeTab="2" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
+    <workbookView xWindow="-24900" yWindow="0" windowWidth="24915" windowHeight="17385" activeTab="2" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Zápasy" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="139">
   <si>
     <t>Rok</t>
   </si>
@@ -461,61 +461,7 @@
     <t>Portret</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/SegenJ.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Torma.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Antala.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Bielik.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Just.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Machcinik.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Balaz.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Beno.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Holcik.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Krajcik.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Licko.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Polak.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Ryba.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Schin.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Sill.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Sedivy.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/SegenP.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Tarnoczy.jpg</t>
-  </si>
-  <si>
-    <t>Data\Achimsky.jpg</t>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/</t>
   </si>
 </sst>
 </file>
@@ -1222,21 +1168,21 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="6" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" style="8" customWidth="1"/>
-    <col min="5" max="8" width="17.73046875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.73046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="13.73046875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="8" customWidth="1"/>
+    <col min="5" max="8" width="17.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="9" customWidth="1"/>
     <col min="13" max="13" width="12" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2014</v>
       </c>
@@ -1322,7 +1268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2014</v>
       </c>
@@ -1367,7 +1313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -1412,7 +1358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -1457,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2014</v>
       </c>
@@ -1502,7 +1448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2014</v>
       </c>
@@ -1547,7 +1493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2014</v>
       </c>
@@ -1592,7 +1538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2014</v>
       </c>
@@ -1637,7 +1583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2014</v>
       </c>
@@ -1682,7 +1628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2014</v>
       </c>
@@ -1727,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2014</v>
       </c>
@@ -1772,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2014</v>
       </c>
@@ -1817,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2014</v>
       </c>
@@ -1858,7 +1804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2014</v>
       </c>
@@ -1899,7 +1845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2014</v>
       </c>
@@ -1940,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2014</v>
       </c>
@@ -1981,7 +1927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2014</v>
       </c>
@@ -2022,7 +1968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2014</v>
       </c>
@@ -2063,7 +2009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2014</v>
       </c>
@@ -2104,7 +2050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2014</v>
       </c>
@@ -2145,7 +2091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2014</v>
       </c>
@@ -2186,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2014</v>
       </c>
@@ -2227,7 +2173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>2014</v>
       </c>
@@ -2268,7 +2214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>2015</v>
       </c>
@@ -2313,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2015</v>
       </c>
@@ -2358,7 +2304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2015</v>
       </c>
@@ -2403,7 +2349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2015</v>
       </c>
@@ -2448,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2015</v>
       </c>
@@ -2493,7 +2439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -2538,7 +2484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2015</v>
       </c>
@@ -2583,7 +2529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2015</v>
       </c>
@@ -2628,7 +2574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2015</v>
       </c>
@@ -2673,7 +2619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2015</v>
       </c>
@@ -2718,7 +2664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2015</v>
       </c>
@@ -2763,7 +2709,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2015</v>
       </c>
@@ -2808,7 +2754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>2015</v>
       </c>
@@ -2853,7 +2799,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2015</v>
       </c>
@@ -2898,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2015</v>
       </c>
@@ -2943,7 +2889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>2015</v>
       </c>
@@ -2988,7 +2934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>2015</v>
       </c>
@@ -3029,7 +2975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>2015</v>
       </c>
@@ -3070,7 +3016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2015</v>
       </c>
@@ -3111,7 +3057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2015</v>
       </c>
@@ -3152,7 +3098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2015</v>
       </c>
@@ -3193,7 +3139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2015</v>
       </c>
@@ -3234,7 +3180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2015</v>
       </c>
@@ -3275,7 +3221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2015</v>
       </c>
@@ -3316,7 +3262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2015</v>
       </c>
@@ -3357,7 +3303,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2015</v>
       </c>
@@ -3398,7 +3344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2015</v>
       </c>
@@ -3439,7 +3385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2015</v>
       </c>
@@ -3480,7 +3426,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2016</v>
       </c>
@@ -3525,7 +3471,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2016</v>
       </c>
@@ -3570,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2016</v>
       </c>
@@ -3615,7 +3561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2016</v>
       </c>
@@ -3660,7 +3606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2016</v>
       </c>
@@ -3705,7 +3651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2016</v>
       </c>
@@ -3750,7 +3696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>2016</v>
       </c>
@@ -3795,7 +3741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>2016</v>
       </c>
@@ -3840,7 +3786,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>2016</v>
       </c>
@@ -3885,7 +3831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2016</v>
       </c>
@@ -3930,7 +3876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>2016</v>
       </c>
@@ -3975,7 +3921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>2016</v>
       </c>
@@ -4020,7 +3966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>2016</v>
       </c>
@@ -4065,7 +4011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2016</v>
       </c>
@@ -4110,7 +4056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2016</v>
       </c>
@@ -4155,7 +4101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2016</v>
       </c>
@@ -4200,7 +4146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2016</v>
       </c>
@@ -4241,7 +4187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2016</v>
       </c>
@@ -4282,7 +4228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2016</v>
       </c>
@@ -4323,7 +4269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2016</v>
       </c>
@@ -4364,7 +4310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2016</v>
       </c>
@@ -4405,7 +4351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2016</v>
       </c>
@@ -4446,7 +4392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2016</v>
       </c>
@@ -4487,7 +4433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2016</v>
       </c>
@@ -4528,7 +4474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>2016</v>
       </c>
@@ -4569,7 +4515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>2016</v>
       </c>
@@ -4610,7 +4556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>2016</v>
       </c>
@@ -4651,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>2016</v>
       </c>
@@ -4692,7 +4638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>2017</v>
       </c>
@@ -4737,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>2017</v>
       </c>
@@ -4782,7 +4728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2017</v>
       </c>
@@ -4825,7 +4771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2017</v>
       </c>
@@ -4870,7 +4816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2017</v>
       </c>
@@ -4915,7 +4861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2017</v>
       </c>
@@ -4960,7 +4906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2017</v>
       </c>
@@ -5005,7 +4951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2017</v>
       </c>
@@ -5050,7 +4996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2017</v>
       </c>
@@ -5095,7 +5041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2017</v>
       </c>
@@ -5140,7 +5086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2017</v>
       </c>
@@ -5185,7 +5131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2017</v>
       </c>
@@ -5228,7 +5174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2017</v>
       </c>
@@ -5269,7 +5215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>2017</v>
       </c>
@@ -5310,7 +5256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>2017</v>
       </c>
@@ -5351,7 +5297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>2017</v>
       </c>
@@ -5392,7 +5338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>2017</v>
       </c>
@@ -5433,7 +5379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>2017</v>
       </c>
@@ -5474,7 +5420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>2017</v>
       </c>
@@ -5515,7 +5461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2017</v>
       </c>
@@ -5556,7 +5502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2017</v>
       </c>
@@ -5597,7 +5543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2017</v>
       </c>
@@ -5638,7 +5584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2017</v>
       </c>
@@ -5679,7 +5625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2017</v>
       </c>
@@ -5720,7 +5666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2018</v>
       </c>
@@ -5765,7 +5711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2018</v>
       </c>
@@ -5810,7 +5756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2018</v>
       </c>
@@ -5855,7 +5801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2018</v>
       </c>
@@ -5900,7 +5846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2018</v>
       </c>
@@ -5945,7 +5891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2018</v>
       </c>
@@ -5990,7 +5936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>2018</v>
       </c>
@@ -6035,7 +5981,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>2018</v>
       </c>
@@ -6080,7 +6026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>2018</v>
       </c>
@@ -6125,7 +6071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>2018</v>
       </c>
@@ -6170,7 +6116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>2018</v>
       </c>
@@ -6215,7 +6161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>2018</v>
       </c>
@@ -6260,7 +6206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>2018</v>
       </c>
@@ -6305,7 +6251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>2018</v>
       </c>
@@ -6350,7 +6296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>2018</v>
       </c>
@@ -6395,7 +6341,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>2018</v>
       </c>
@@ -6440,7 +6386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>2018</v>
       </c>
@@ -6481,7 +6427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>2018</v>
       </c>
@@ -6522,7 +6468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>2018</v>
       </c>
@@ -6563,7 +6509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>2018</v>
       </c>
@@ -6604,7 +6550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>2018</v>
       </c>
@@ -6645,7 +6591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>2018</v>
       </c>
@@ -6686,7 +6632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>2018</v>
       </c>
@@ -6727,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>2018</v>
       </c>
@@ -6768,7 +6714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>2018</v>
       </c>
@@ -6809,7 +6755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>2018</v>
       </c>
@@ -6850,7 +6796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>2018</v>
       </c>
@@ -6891,7 +6837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2018</v>
       </c>
@@ -6932,7 +6878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>2019</v>
       </c>
@@ -6977,7 +6923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2019</v>
       </c>
@@ -7022,7 +6968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>2019</v>
       </c>
@@ -7067,7 +7013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>2019</v>
       </c>
@@ -7112,7 +7058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>2019</v>
       </c>
@@ -7157,7 +7103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>2019</v>
       </c>
@@ -7202,7 +7148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>2019</v>
       </c>
@@ -7247,7 +7193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>2019</v>
       </c>
@@ -7292,7 +7238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>2019</v>
       </c>
@@ -7337,7 +7283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>2019</v>
       </c>
@@ -7382,7 +7328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>2019</v>
       </c>
@@ -7427,7 +7373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>2019</v>
       </c>
@@ -7472,7 +7418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>2019</v>
       </c>
@@ -7517,7 +7463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>2019</v>
       </c>
@@ -7562,7 +7508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>2019</v>
       </c>
@@ -7607,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>2019</v>
       </c>
@@ -7652,7 +7598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>2019</v>
       </c>
@@ -7693,7 +7639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>2019</v>
       </c>
@@ -7734,7 +7680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>2019</v>
       </c>
@@ -7775,7 +7721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>2019</v>
       </c>
@@ -7816,7 +7762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>2019</v>
       </c>
@@ -7857,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>2019</v>
       </c>
@@ -7898,7 +7844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2019</v>
       </c>
@@ -7939,7 +7885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>2019</v>
       </c>
@@ -7980,7 +7926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>2019</v>
       </c>
@@ -8021,7 +7967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>2019</v>
       </c>
@@ -8062,7 +8008,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>2019</v>
       </c>
@@ -8103,7 +8049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>2019</v>
       </c>
@@ -8144,7 +8090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>2020</v>
       </c>
@@ -8189,7 +8135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>2020</v>
       </c>
@@ -8234,7 +8180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>2020</v>
       </c>
@@ -8279,7 +8225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>2020</v>
       </c>
@@ -8324,7 +8270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>2020</v>
       </c>
@@ -8369,7 +8315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>2020</v>
       </c>
@@ -8414,7 +8360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>2020</v>
       </c>
@@ -8459,7 +8405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>2020</v>
       </c>
@@ -8504,7 +8450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>2020</v>
       </c>
@@ -8549,7 +8495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>2020</v>
       </c>
@@ -8594,7 +8540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>2020</v>
       </c>
@@ -8639,7 +8585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>2020</v>
       </c>
@@ -8684,7 +8630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>2020</v>
       </c>
@@ -8729,7 +8675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>2020</v>
       </c>
@@ -8774,7 +8720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>2020</v>
       </c>
@@ -8819,7 +8765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>2020</v>
       </c>
@@ -8864,7 +8810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>2020</v>
       </c>
@@ -8905,7 +8851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2020</v>
       </c>
@@ -8946,7 +8892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>2020</v>
       </c>
@@ -8987,7 +8933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>2020</v>
       </c>
@@ -9028,7 +8974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>2020</v>
       </c>
@@ -9069,7 +9015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>2020</v>
       </c>
@@ -9110,7 +9056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>2020</v>
       </c>
@@ -9151,7 +9097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>2020</v>
       </c>
@@ -9192,7 +9138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>2020</v>
       </c>
@@ -9233,7 +9179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>2020</v>
       </c>
@@ -9274,7 +9220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>2020</v>
       </c>
@@ -9315,7 +9261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>2020</v>
       </c>
@@ -9356,7 +9302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>2021</v>
       </c>
@@ -9401,7 +9347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>2021</v>
       </c>
@@ -9446,7 +9392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>2021</v>
       </c>
@@ -9491,7 +9437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>2021</v>
       </c>
@@ -9536,7 +9482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>2021</v>
       </c>
@@ -9581,7 +9527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>2021</v>
       </c>
@@ -9626,7 +9572,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>2021</v>
       </c>
@@ -9671,7 +9617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>2021</v>
       </c>
@@ -9716,7 +9662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>2021</v>
       </c>
@@ -9761,7 +9707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>2021</v>
       </c>
@@ -9806,7 +9752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>2021</v>
       </c>
@@ -9851,7 +9797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>2021</v>
       </c>
@@ -9896,7 +9842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2021</v>
       </c>
@@ -9941,7 +9887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>2021</v>
       </c>
@@ -9986,7 +9932,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>2021</v>
       </c>
@@ -10031,7 +9977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>2021</v>
       </c>
@@ -10076,7 +10022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>2021</v>
       </c>
@@ -10117,7 +10063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>2021</v>
       </c>
@@ -10158,7 +10104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>2021</v>
       </c>
@@ -10199,7 +10145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>2021</v>
       </c>
@@ -10240,7 +10186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>2021</v>
       </c>
@@ -10281,7 +10227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>2021</v>
       </c>
@@ -10322,7 +10268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>2021</v>
       </c>
@@ -10363,7 +10309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>2021</v>
       </c>
@@ -10404,7 +10350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>2021</v>
       </c>
@@ -10445,7 +10391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>2021</v>
       </c>
@@ -10486,7 +10432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>2021</v>
       </c>
@@ -10527,7 +10473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>2021</v>
       </c>
@@ -10568,7 +10514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>2022</v>
       </c>
@@ -10613,7 +10559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>2022</v>
       </c>
@@ -10658,7 +10604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>2022</v>
       </c>
@@ -10703,7 +10649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>2022</v>
       </c>
@@ -10748,7 +10694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>2022</v>
       </c>
@@ -10793,7 +10739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>2022</v>
       </c>
@@ -10838,7 +10784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>2022</v>
       </c>
@@ -10883,7 +10829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>2022</v>
       </c>
@@ -10928,7 +10874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>2022</v>
       </c>
@@ -10973,7 +10919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>2022</v>
       </c>
@@ -11018,7 +10964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>2022</v>
       </c>
@@ -11063,7 +11009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>2022</v>
       </c>
@@ -11108,7 +11054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>2022</v>
       </c>
@@ -11153,7 +11099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>2022</v>
       </c>
@@ -11198,7 +11144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>2022</v>
       </c>
@@ -11243,7 +11189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>2022</v>
       </c>
@@ -11288,7 +11234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>2022</v>
       </c>
@@ -11329,7 +11275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>2022</v>
       </c>
@@ -11370,7 +11316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>2022</v>
       </c>
@@ -11411,7 +11357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>2022</v>
       </c>
@@ -11452,7 +11398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>2022</v>
       </c>
@@ -11493,7 +11439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>2022</v>
       </c>
@@ -11534,7 +11480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>2022</v>
       </c>
@@ -11575,7 +11521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>2022</v>
       </c>
@@ -11616,7 +11562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>2022</v>
       </c>
@@ -11657,7 +11603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>2022</v>
       </c>
@@ -11698,7 +11644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>2022</v>
       </c>
@@ -11739,7 +11685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>2022</v>
       </c>
@@ -11780,7 +11726,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>2023</v>
       </c>
@@ -11825,7 +11771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>2023</v>
       </c>
@@ -11870,7 +11816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>2023</v>
       </c>
@@ -11915,7 +11861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>2023</v>
       </c>
@@ -11960,7 +11906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>2023</v>
       </c>
@@ -12005,7 +11951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>2023</v>
       </c>
@@ -12050,7 +11996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>2023</v>
       </c>
@@ -12095,7 +12041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>2023</v>
       </c>
@@ -12140,7 +12086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>2023</v>
       </c>
@@ -12185,7 +12131,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>2023</v>
       </c>
@@ -12230,7 +12176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>2023</v>
       </c>
@@ -12275,7 +12221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>2023</v>
       </c>
@@ -12320,7 +12266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>2023</v>
       </c>
@@ -12365,7 +12311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>2023</v>
       </c>
@@ -12410,7 +12356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>2023</v>
       </c>
@@ -12455,7 +12401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>2023</v>
       </c>
@@ -12500,7 +12446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>2023</v>
       </c>
@@ -12541,7 +12487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>2023</v>
       </c>
@@ -12582,7 +12528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>2023</v>
       </c>
@@ -12623,7 +12569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>2023</v>
       </c>
@@ -12664,7 +12610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>2023</v>
       </c>
@@ -12705,7 +12651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>2023</v>
       </c>
@@ -12746,7 +12692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>2023</v>
       </c>
@@ -12787,7 +12733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>2023</v>
       </c>
@@ -12828,7 +12774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>2023</v>
       </c>
@@ -12869,7 +12815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>2023</v>
       </c>
@@ -12910,7 +12856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>2023</v>
       </c>
@@ -12951,7 +12897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>2023</v>
       </c>
@@ -12992,7 +12938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>2024</v>
       </c>
@@ -13037,7 +12983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>2024</v>
       </c>
@@ -13082,7 +13028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>2024</v>
       </c>
@@ -13127,7 +13073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>2024</v>
       </c>
@@ -13172,7 +13118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>2024</v>
       </c>
@@ -13217,7 +13163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>2024</v>
       </c>
@@ -13262,7 +13208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>2024</v>
       </c>
@@ -13307,7 +13253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>2024</v>
       </c>
@@ -13352,7 +13298,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>2024</v>
       </c>
@@ -13397,7 +13343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>2024</v>
       </c>
@@ -13442,7 +13388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>2024</v>
       </c>
@@ -13487,7 +13433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>2024</v>
       </c>
@@ -13532,7 +13478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>2024</v>
       </c>
@@ -13577,7 +13523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>2024</v>
       </c>
@@ -13622,7 +13568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>2024</v>
       </c>
@@ -13667,7 +13613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>2024</v>
       </c>
@@ -13712,7 +13658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>2024</v>
       </c>
@@ -13753,7 +13699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>2024</v>
       </c>
@@ -13794,7 +13740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>2024</v>
       </c>
@@ -13835,7 +13781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>2024</v>
       </c>
@@ -13876,7 +13822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>2024</v>
       </c>
@@ -13917,7 +13863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>2024</v>
       </c>
@@ -13958,7 +13904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>2024</v>
       </c>
@@ -13999,7 +13945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>2024</v>
       </c>
@@ -14040,7 +13986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>2024</v>
       </c>
@@ -14081,7 +14027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>2024</v>
       </c>
@@ -14122,7 +14068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>2024</v>
       </c>
@@ -14163,7 +14109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>2024</v>
       </c>
@@ -14204,7 +14150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>2025</v>
       </c>
@@ -14249,7 +14195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>2025</v>
       </c>
@@ -14294,7 +14240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>2025</v>
       </c>
@@ -14339,7 +14285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>2025</v>
       </c>
@@ -14384,7 +14330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>2025</v>
       </c>
@@ -14429,7 +14375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>2025</v>
       </c>
@@ -14474,7 +14420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>2025</v>
       </c>
@@ -14519,7 +14465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>2025</v>
       </c>
@@ -14564,7 +14510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>2025</v>
       </c>
@@ -14609,7 +14555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>2025</v>
       </c>
@@ -14654,7 +14600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>2025</v>
       </c>
@@ -14699,7 +14645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>2025</v>
       </c>
@@ -14744,7 +14690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>2025</v>
       </c>
@@ -14789,7 +14735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>2025</v>
       </c>
@@ -14834,7 +14780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>2025</v>
       </c>
@@ -14879,7 +14825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>2025</v>
       </c>
@@ -14924,7 +14870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>2025</v>
       </c>
@@ -14965,7 +14911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>2025</v>
       </c>
@@ -15006,7 +14952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>2025</v>
       </c>
@@ -15047,7 +14993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>2025</v>
       </c>
@@ -15088,7 +15034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>2025</v>
       </c>
@@ -15129,7 +15075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>2025</v>
       </c>
@@ -15170,7 +15116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>2025</v>
       </c>
@@ -15211,7 +15157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>2025</v>
       </c>
@@ -15252,7 +15198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>2025</v>
       </c>
@@ -15293,7 +15239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>2025</v>
       </c>
@@ -15334,7 +15280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>2025</v>
       </c>
@@ -15375,7 +15321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>2025</v>
       </c>
@@ -15492,19 +15438,19 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" customWidth="1"/>
-    <col min="6" max="7" width="11.1328125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="58.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="7" width="11.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15533,7 +15479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>2013</v>
       </c>
@@ -15562,7 +15508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2014</v>
       </c>
@@ -15591,7 +15537,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2015</v>
       </c>
@@ -15620,7 +15566,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2016</v>
       </c>
@@ -15649,7 +15595,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>2017</v>
       </c>
@@ -15678,7 +15624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>2018</v>
       </c>
@@ -15707,7 +15653,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>2019</v>
       </c>
@@ -15736,7 +15682,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>2020</v>
       </c>
@@ -15765,7 +15711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2021</v>
       </c>
@@ -15794,7 +15740,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>2022</v>
       </c>
@@ -15823,7 +15769,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>2023</v>
       </c>
@@ -15852,7 +15798,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>2024</v>
       </c>
@@ -15881,7 +15827,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>2025</v>
       </c>
@@ -15910,7 +15856,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H18" s="17"/>
     </row>
   </sheetData>
@@ -15954,441 +15900,676 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40885CB9-108E-4174-9C31-B677D76AB5E9}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:B73"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B2" s="17" t="str">
+        <f>C$1&amp;LEFT(A2,FIND(" ",A2)-1)&amp;MID(A2,FIND(" ",A2)+1,1)&amp;".jpg"</f>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/AchimskýR.jpg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B3" s="17" t="str">
+        <f t="shared" ref="B3:B66" si="0">C$1&amp;LEFT(A3,FIND(" ",A3)-1)&amp;MID(A3,FIND(" ",A3)+1,1)&amp;".jpg"</f>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/AntalaR.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BabicJ.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BajzaM.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BalážK.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BednárikR.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BelanM.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BenčíkP.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BeňoA.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BielikP.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BrinckoM.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/CigáňP.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/FarkašovskýK.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/GaburaR.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/GalbavýP.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/GotzlR.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HanzalíkD.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HavlíkD.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HolčíkĽ.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HolečkaR.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HolešaJ.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HoranskýM.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B24" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ChocholI.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/JamnickýI.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B26" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/JustP.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B27" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KafkaP.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KokošV.jpg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KolesárP.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KollárM.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KotlárikP.jpg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KrajčíkM.jpg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KráľV.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/LacuškaJ.jpg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/LičkoM.jpg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/MachcinikD.jpg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/MatlákI.jpg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/MňahončákM.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/NagyP.jpg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/NitkaM.jpg</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/NovákP.jpg</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/OčadlíkM.jpg</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PechaJ.jpg</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PinterM.jpg</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PolákJ.jpg</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PospíšilX.jpg</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PotockýR.jpg</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/RačekV.jpg</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/RybaP.jpg</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ScirankaM.jpg</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B51" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SegéňJ.jpg</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SegéňP.jpg</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B53" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SchinP.jpg</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B54" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SillR.jpg</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B55" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SmatanaL.jpg</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B56" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/StančekR.jpg</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B57" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠedivýJ.jpg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠevčovicP.jpg</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B59" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠimončI.jpg</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B60" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠindelárM.jpg</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B61" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠindelárP.jpg</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B62" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠtefkoA.jpg</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B63" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/TarnóczyP.jpg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B64" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/TormaŠ.jpg</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B65" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VališM.jpg</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ValoM.jpg</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B67" s="17" t="str">
+        <f t="shared" ref="B67:B73" si="1">C$1&amp;LEFT(A67,FIND(" ",A67)-1)&amp;MID(A67,FIND(" ",A67)+1,1)&amp;".jpg"</f>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VargaJ.jpg</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B68" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VasilenkoM.jpg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B69" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VedejB.jpg</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B70" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VišňovskýĽ.jpg</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B71" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/WeisV.jpg</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B72" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/WiegerP.jpg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>68</v>
+      </c>
+      <c r="B73" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ZlochaM.jpg</v>
       </c>
     </row>
   </sheetData>
@@ -16396,25 +16577,8 @@
     <sortCondition ref="A2:A74"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1" xr:uid="{EDC9EE67-C7AD-4B27-A6DE-D82F6218EED3}"/>
-    <hyperlink ref="B64" r:id="rId2" xr:uid="{AA291847-C527-43CA-AAE1-A30F269D4931}"/>
-    <hyperlink ref="B2" r:id="rId3" display="https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Achimsky.jpg" xr:uid="{479E9D9E-DC1F-470E-AFDB-6DFA90451C30}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{9B77123F-3292-4595-A107-6AB64DD1FF07}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{99C158F8-4ECC-4700-BE88-0DCCDDB0A152}"/>
-    <hyperlink ref="B10" r:id="rId6" xr:uid="{F3AA5783-CC5C-4945-BFBB-BEC7E6EBDEDF}"/>
-    <hyperlink ref="B11" r:id="rId7" xr:uid="{77A6F040-9B22-4FFE-968A-40F68BB4CBDF}"/>
-    <hyperlink ref="B20" r:id="rId8" xr:uid="{7F5DE3ED-851B-4968-93F9-F251CBF46324}"/>
-    <hyperlink ref="B26" r:id="rId9" xr:uid="{6FDFC036-0696-4B23-9903-0678374212A7}"/>
-    <hyperlink ref="B32" r:id="rId10" xr:uid="{96F535C8-8BE1-4236-8A78-33752B82C9EA}"/>
-    <hyperlink ref="B35" r:id="rId11" xr:uid="{D2F50ED2-E172-4463-A59B-3406B0CA661E}"/>
-    <hyperlink ref="B36" r:id="rId12" xr:uid="{5A1599E0-0656-4967-ADB4-536FC36CF84D}"/>
-    <hyperlink ref="B45" r:id="rId13" xr:uid="{E4F7C559-AB10-4E71-86C8-4E9A664AF8AA}"/>
-    <hyperlink ref="B49" r:id="rId14" xr:uid="{C30F3618-6AF1-4199-A532-C86A207E2EA5}"/>
-    <hyperlink ref="B53" r:id="rId15" xr:uid="{098A094B-949E-449F-85B4-E705CAB87CEF}"/>
-    <hyperlink ref="B57" r:id="rId16" xr:uid="{4881E0EB-0CB9-4AD1-81B4-D6CD8416D2C4}"/>
-    <hyperlink ref="B52" r:id="rId17" xr:uid="{D2F68AFB-ECCF-4ADC-AE93-0CDFB6969BD0}"/>
-    <hyperlink ref="B54" r:id="rId18" xr:uid="{BED7FACE-8E9B-40D7-9425-57AF1D8811E3}"/>
-    <hyperlink ref="B63" r:id="rId19" xr:uid="{52AFEEB9-E7F8-405B-B036-D057268D0547}"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/Achimsky.jpg" xr:uid="{DD4BB307-29E1-4587-9988-81854FF8A438}"/>
+    <hyperlink ref="B3:B73" r:id="rId2" display="https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/Achimsky.jpg" xr:uid="{49EB3782-FE7D-40CE-9428-6D1981217F44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/GolfData.xlsx
+++ b/Data/GolfData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lefties-righties\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0607AE7-541B-4662-8689-1A18521500DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D4C7A-819A-4061-8429-215DC7E3A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="0" windowWidth="24915" windowHeight="17385" activeTab="2" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
+    <workbookView xWindow="-25260" yWindow="3360" windowWidth="24915" windowHeight="12645" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Zápasy" sheetId="1" r:id="rId1"/>
@@ -383,9 +383,6 @@
     <t>https://www.golfhostivar.cz/wp-content/uploads/2015/04/olomouc.jpg</t>
   </si>
   <si>
-    <t>https://scontent-vie1-1.xx.fbcdn.net/v/t39.30808-6/294744283_555651426354818_9063292769574535846_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=jxeF2O9BHTQQ7kNvwEMLxFx&amp;_nc_oc=Adm63q4prWK8f_TyG6qr3h3mHLr4OsWV9uByBUj2n9Q1VnRPJWIoPKpsXxcm6V0Hvrk&amp;_nc_zt=23&amp;_nc_ht=scontent-vie1-1.xx&amp;_nc_gid=ILBiWwolf6T70k_snLqq0w&amp;oh=00_AfswjyFW4Rng_3-WVXu2eOqhOhhbgBAPkpohZ6QFw9vo0w&amp;oe=6987E5DD</t>
-  </si>
-  <si>
     <t>https://www.ostravice-golf.cz/images/Logo-GCOSE.JPG</t>
   </si>
   <si>
@@ -449,9 +446,6 @@
     <t>Stav R</t>
   </si>
   <si>
-    <t>https://cdn.allsquaregolf.com/pictures/pictures/000/141/400/sq_me/unknown_picture.jpg</t>
-  </si>
-  <si>
     <t>https://oldlakegolf.hu/wp-content/uploads/2024/07/oldlake_logof_k-2.jpg</t>
   </si>
   <si>
@@ -462,6 +456,12 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Logo/GCMysteves.png</t>
+  </si>
+  <si>
+    <t>https://creativegolf.com/wp-content/uploads/2021/07/golf-club-kuneticka-hora_logo.png</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B8EBE-F761-43A0-B680-B163CBB81B3A}">
   <dimension ref="A1:M328"/>
   <sheetViews>
-    <sheetView topLeftCell="A298" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -15434,8 +15434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A006B703-B40A-4937-BEC9-B770FF1D91D5}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15467,10 +15467,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>108</v>
@@ -15484,7 +15484,7 @@
         <v>2013</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>25</v>
@@ -15505,7 +15505,7 @@
         <v>106</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15534,7 +15534,7 @@
         <v>109</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15589,10 +15589,10 @@
         <v>0</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15618,10 +15618,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>115</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -15647,10 +15647,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -15676,10 +15676,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -15705,10 +15705,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -15734,10 +15734,10 @@
         <v>3</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -15763,10 +15763,10 @@
         <v>3</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -15792,10 +15792,10 @@
         <v>4</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -15821,10 +15821,10 @@
         <v>4</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -15850,10 +15850,10 @@
         <v>5</v>
       </c>
       <c r="H14" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.25">
@@ -15868,7 +15868,7 @@
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{8898082C-6FE4-4B1E-BE1D-DA2F08E43AB5}"/>
     <hyperlink ref="I2" r:id="rId2" xr:uid="{677104D3-A026-457D-8A10-42C674DAFE55}"/>
-    <hyperlink ref="I3" r:id="rId3" display="https://scontent-vie1-1.xx.fbcdn.net/v/t39.30808-6/294744283_555651426354818_9063292769574535846_n.jpg?_nc_cat=106&amp;ccb=1-7&amp;_nc_sid=6ee11a&amp;_nc_ohc=jxeF2O9BHTQQ7kNvwEMLxFx&amp;_nc_oc=Adm63q4prWK8f_TyG6qr3h3mHLr4OsWV9uByBUj2n9Q1VnRPJWIoPKpsXxcm6V0Hvrk&amp;_nc_zt=23&amp;_nc_ht=scontent-vie1-1.xx&amp;_nc_gid=ILBiWwolf6T70k_snLqq0w&amp;oh=00_AfswjyFW4Rng_3-WVXu2eOqhOhhbgBAPkpohZ6QFw9vo0w&amp;oe=6987E5DD" xr:uid="{636E5CE6-A306-4AFD-878D-D7AD335CA0F8}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{636E5CE6-A306-4AFD-878D-D7AD335CA0F8}"/>
     <hyperlink ref="I4" r:id="rId4" xr:uid="{D6C18C12-15A2-49BE-BA77-F56D32AD183F}"/>
     <hyperlink ref="H3" r:id="rId5" xr:uid="{576A65FB-F8E1-4803-8FD6-DEEC04C8058C}"/>
     <hyperlink ref="H4" r:id="rId6" xr:uid="{BFC202FF-6A48-40D5-B6F2-4E931C7F2035}"/>
@@ -15902,7 +15902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40885CB9-108E-4174-9C31-B677D76AB5E9}">
   <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -15915,13 +15915,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/Data/GolfData.xlsx
+++ b/Data/GolfData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\lefties-righties\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419D4C7A-819A-4061-8429-215DC7E3A0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219BAFD7-A257-4671-A87A-1DD2FDCEEDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25260" yWindow="3360" windowWidth="24915" windowHeight="12645" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
+    <workbookView xWindow="1290" yWindow="795" windowWidth="21600" windowHeight="14175" activeTab="2" xr2:uid="{F1F4E65E-AD11-4B54-8698-5E2E800D5E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Zápasy" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="140">
   <si>
     <t>Rok</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>https://creativegolf.com/wp-content/uploads/2021/07/golf-club-kuneticka-hora_logo.png</t>
+  </si>
+  <si>
+    <t>Players/</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266B8EBE-F761-43A0-B680-B163CBB81B3A}">
   <dimension ref="A1:M328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -15900,20 +15903,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40885CB9-108E-4174-9C31-B677D76AB5E9}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>134</v>
       </c>
@@ -15923,140 +15926,143 @@
       <c r="C1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="17" t="str">
-        <f>C$1&amp;LEFT(A2,FIND(" ",A2)-1)&amp;MID(A2,FIND(" ",A2)+1,1)&amp;".jpg"</f>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/AchimskýR.jpg</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" ref="B2:B60" si="0">LEFT(A2,FIND(" ",A2)-1)&amp;MID(A2,FIND(" ",A2)+1,1)&amp;".jpg"</f>
+        <v>AchimskýR.jpg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="17" t="str">
-        <f t="shared" ref="B3:B66" si="0">C$1&amp;LEFT(A3,FIND(" ",A3)-1)&amp;MID(A3,FIND(" ",A3)+1,1)&amp;".jpg"</f>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/AntalaR.jpg</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>AntalaR.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BabicJ.jpg</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BabicJ.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BajzaM.jpg</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BajzaM.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BalážK.jpg</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BalážK.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BednárikR.jpg</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BednárikR.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BelanM.jpg</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BelanM.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BenčíkP.jpg</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BenčíkP.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BeňoA.jpg</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BeňoA.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BielikP.jpg</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BielikP.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/BrinckoM.jpg</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>BrinckoM.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/CigáňP.jpg</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>CigáňP.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/FarkašovskýK.jpg</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>FarkašovskýK.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/GaburaR.jpg</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>GaburaR.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/GalbavýP.jpg</v>
+        <v>GalbavýP.jpg</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -16065,7 +16071,7 @@
       </c>
       <c r="B17" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/GotzlR.jpg</v>
+        <v>GotzlR.jpg</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -16074,7 +16080,7 @@
       </c>
       <c r="B18" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HanzalíkD.jpg</v>
+        <v>HanzalíkD.jpg</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -16083,7 +16089,7 @@
       </c>
       <c r="B19" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HavlíkD.jpg</v>
+        <v>HavlíkD.jpg</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -16092,7 +16098,7 @@
       </c>
       <c r="B20" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HolčíkĽ.jpg</v>
+        <v>HolčíkĽ.jpg</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -16101,7 +16107,7 @@
       </c>
       <c r="B21" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HolečkaR.jpg</v>
+        <v>HolečkaR.jpg</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -16110,7 +16116,7 @@
       </c>
       <c r="B22" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HolešaJ.jpg</v>
+        <v>HolešaJ.jpg</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -16119,7 +16125,7 @@
       </c>
       <c r="B23" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/HoranskýM.jpg</v>
+        <v>HoranskýM.jpg</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -16128,7 +16134,7 @@
       </c>
       <c r="B24" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ChocholI.jpg</v>
+        <v>ChocholI.jpg</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -16137,7 +16143,7 @@
       </c>
       <c r="B25" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/JamnickýI.jpg</v>
+        <v>JamnickýI.jpg</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -16146,7 +16152,7 @@
       </c>
       <c r="B26" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/JustP.jpg</v>
+        <v>JustP.jpg</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -16155,7 +16161,7 @@
       </c>
       <c r="B27" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KafkaP.jpg</v>
+        <v>KafkaP.jpg</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -16164,7 +16170,7 @@
       </c>
       <c r="B28" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KokošV.jpg</v>
+        <v>KokošV.jpg</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -16173,7 +16179,7 @@
       </c>
       <c r="B29" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KolesárP.jpg</v>
+        <v>KolesárP.jpg</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -16182,7 +16188,7 @@
       </c>
       <c r="B30" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KollárM.jpg</v>
+        <v>KollárM.jpg</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -16191,7 +16197,7 @@
       </c>
       <c r="B31" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KotlárikP.jpg</v>
+        <v>KotlárikP.jpg</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -16200,7 +16206,7 @@
       </c>
       <c r="B32" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KrajčíkM.jpg</v>
+        <v>KrajčíkM.jpg</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -16209,7 +16215,7 @@
       </c>
       <c r="B33" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/KráľV.jpg</v>
+        <v>KráľV.jpg</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -16218,7 +16224,7 @@
       </c>
       <c r="B34" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/LacuškaJ.jpg</v>
+        <v>LacuškaJ.jpg</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -16227,7 +16233,7 @@
       </c>
       <c r="B35" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/LičkoM.jpg</v>
+        <v>LičkoM.jpg</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -16236,7 +16242,7 @@
       </c>
       <c r="B36" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/MachcinikD.jpg</v>
+        <v>MachcinikD.jpg</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -16245,7 +16251,7 @@
       </c>
       <c r="B37" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/MatlákI.jpg</v>
+        <v>MatlákI.jpg</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -16254,7 +16260,7 @@
       </c>
       <c r="B38" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/MňahončákM.jpg</v>
+        <v>MňahončákM.jpg</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -16263,7 +16269,7 @@
       </c>
       <c r="B39" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/NagyP.jpg</v>
+        <v>NagyP.jpg</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -16272,7 +16278,7 @@
       </c>
       <c r="B40" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/NitkaM.jpg</v>
+        <v>NitkaM.jpg</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -16281,7 +16287,7 @@
       </c>
       <c r="B41" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/NovákP.jpg</v>
+        <v>NovákP.jpg</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -16290,7 +16296,7 @@
       </c>
       <c r="B42" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/OčadlíkM.jpg</v>
+        <v>OčadlíkM.jpg</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -16299,7 +16305,7 @@
       </c>
       <c r="B43" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PechaJ.jpg</v>
+        <v>PechaJ.jpg</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -16308,7 +16314,7 @@
       </c>
       <c r="B44" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PinterM.jpg</v>
+        <v>PinterM.jpg</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -16317,7 +16323,7 @@
       </c>
       <c r="B45" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PolákJ.jpg</v>
+        <v>PolákJ.jpg</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -16326,7 +16332,7 @@
       </c>
       <c r="B46" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PospíšilX.jpg</v>
+        <v>PospíšilX.jpg</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -16335,7 +16341,7 @@
       </c>
       <c r="B47" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/PotockýR.jpg</v>
+        <v>PotockýR.jpg</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -16344,7 +16350,7 @@
       </c>
       <c r="B48" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/RačekV.jpg</v>
+        <v>RačekV.jpg</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -16353,7 +16359,7 @@
       </c>
       <c r="B49" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/RybaP.jpg</v>
+        <v>RybaP.jpg</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -16362,7 +16368,7 @@
       </c>
       <c r="B50" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ScirankaM.jpg</v>
+        <v>ScirankaM.jpg</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -16371,7 +16377,7 @@
       </c>
       <c r="B51" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SegéňJ.jpg</v>
+        <v>SegéňJ.jpg</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -16380,7 +16386,7 @@
       </c>
       <c r="B52" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SegéňP.jpg</v>
+        <v>SegéňP.jpg</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -16389,7 +16395,7 @@
       </c>
       <c r="B53" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SchinP.jpg</v>
+        <v>SchinP.jpg</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -16398,7 +16404,7 @@
       </c>
       <c r="B54" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SillR.jpg</v>
+        <v>SillR.jpg</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -16407,7 +16413,7 @@
       </c>
       <c r="B55" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/SmatanaL.jpg</v>
+        <v>SmatanaL.jpg</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -16416,7 +16422,7 @@
       </c>
       <c r="B56" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/StančekR.jpg</v>
+        <v>StančekR.jpg</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -16425,7 +16431,7 @@
       </c>
       <c r="B57" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠedivýJ.jpg</v>
+        <v>ŠedivýJ.jpg</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -16434,7 +16440,7 @@
       </c>
       <c r="B58" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠevčovicP.jpg</v>
+        <v>ŠevčovicP.jpg</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -16443,7 +16449,7 @@
       </c>
       <c r="B59" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠimončI.jpg</v>
+        <v>ŠimončI.jpg</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -16452,7 +16458,7 @@
       </c>
       <c r="B60" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠindelárM.jpg</v>
+        <v>ŠindelárM.jpg</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -16460,8 +16466,8 @@
         <v>76</v>
       </c>
       <c r="B61" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠindelárP.jpg</v>
+        <f t="shared" ref="B61:B73" si="1">LEFT(A61,FIND(" ",A61)-1)&amp;MID(A61,FIND(" ",A61)+1,1)&amp;".jpg"</f>
+        <v>ŠindelárP.jpg</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -16469,8 +16475,8 @@
         <v>15</v>
       </c>
       <c r="B62" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ŠtefkoA.jpg</v>
+        <f t="shared" si="1"/>
+        <v>ŠtefkoA.jpg</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -16478,8 +16484,8 @@
         <v>22</v>
       </c>
       <c r="B63" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/TarnóczyP.jpg</v>
+        <f t="shared" si="1"/>
+        <v>TarnóczyP.jpg</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -16487,8 +16493,8 @@
         <v>63</v>
       </c>
       <c r="B64" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/TormaŠ.jpg</v>
+        <f t="shared" si="1"/>
+        <v>TormaŠ.jpg</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -16496,8 +16502,8 @@
         <v>18</v>
       </c>
       <c r="B65" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VališM.jpg</v>
+        <f t="shared" si="1"/>
+        <v>VališM.jpg</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -16505,8 +16511,8 @@
         <v>82</v>
       </c>
       <c r="B66" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ValoM.jpg</v>
+        <f t="shared" si="1"/>
+        <v>ValoM.jpg</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -16514,8 +16520,8 @@
         <v>34</v>
       </c>
       <c r="B67" s="17" t="str">
-        <f t="shared" ref="B67:B73" si="1">C$1&amp;LEFT(A67,FIND(" ",A67)-1)&amp;MID(A67,FIND(" ",A67)+1,1)&amp;".jpg"</f>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VargaJ.jpg</v>
+        <f t="shared" si="1"/>
+        <v>VargaJ.jpg</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -16524,7 +16530,7 @@
       </c>
       <c r="B68" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VasilenkoM.jpg</v>
+        <v>VasilenkoM.jpg</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -16533,7 +16539,7 @@
       </c>
       <c r="B69" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VedejB.jpg</v>
+        <v>VedejB.jpg</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -16542,7 +16548,7 @@
       </c>
       <c r="B70" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/VišňovskýĽ.jpg</v>
+        <v>VišňovskýĽ.jpg</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -16551,7 +16557,7 @@
       </c>
       <c r="B71" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/WeisV.jpg</v>
+        <v>WeisV.jpg</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -16560,7 +16566,7 @@
       </c>
       <c r="B72" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/WiegerP.jpg</v>
+        <v>WiegerP.jpg</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -16569,17 +16575,13 @@
       </c>
       <c r="B73" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/ZlochaM.jpg</v>
+        <v>ZlochaM.jpg</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A74">
     <sortCondition ref="A2:A74"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/Achimsky.jpg" xr:uid="{DD4BB307-29E1-4587-9988-81854FF8A438}"/>
-    <hyperlink ref="B3:B73" r:id="rId2" display="https://raw.githubusercontent.com/Jasen77/lefties-righties/refs/heads/main/Players/Achimsky.jpg" xr:uid="{49EB3782-FE7D-40CE-9428-6D1981217F44}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>